--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Amelx</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H2">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.2269480458689</v>
+        <v>22.865525</v>
       </c>
       <c r="N2">
-        <v>21.2269480458689</v>
+        <v>68.596575</v>
       </c>
       <c r="O2">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="P2">
-        <v>0.03210123950619275</v>
+        <v>0.03261667889402277</v>
       </c>
       <c r="Q2">
-        <v>20.77924032033862</v>
+        <v>28.21108840923334</v>
       </c>
       <c r="R2">
-        <v>20.77924032033862</v>
+        <v>253.8997956831</v>
       </c>
       <c r="S2">
-        <v>0.03210123950619275</v>
+        <v>0.02674890649513047</v>
       </c>
       <c r="T2">
-        <v>0.03210123950619275</v>
+        <v>0.02674890649513047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H3">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>226.800654288099</v>
+        <v>227.1285753333333</v>
       </c>
       <c r="N3">
-        <v>226.800654288099</v>
+        <v>681.385726</v>
       </c>
       <c r="O3">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="P3">
-        <v>0.3429877016578652</v>
+        <v>0.3239890537962366</v>
       </c>
       <c r="Q3">
-        <v>222.0170930874644</v>
+        <v>280.2272993509609</v>
       </c>
       <c r="R3">
-        <v>222.0170930874644</v>
+        <v>2522.045694158648</v>
       </c>
       <c r="S3">
-        <v>0.3429877016578652</v>
+        <v>0.2657031064873223</v>
       </c>
       <c r="T3">
-        <v>0.3429877016578652</v>
+        <v>0.2657031064873223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H4">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>207.38564401741</v>
+        <v>207.8383993333333</v>
       </c>
       <c r="N4">
-        <v>207.38564401741</v>
+        <v>623.5151979999999</v>
       </c>
       <c r="O4">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="P4">
-        <v>0.3136266322583538</v>
+        <v>0.2964724550563789</v>
       </c>
       <c r="Q4">
-        <v>203.0115740950625</v>
+        <v>256.4274145652116</v>
       </c>
       <c r="R4">
-        <v>203.0115740950625</v>
+        <v>2307.846731086904</v>
       </c>
       <c r="S4">
-        <v>0.3136266322583538</v>
+        <v>0.243136770743944</v>
       </c>
       <c r="T4">
-        <v>0.3136266322583538</v>
+        <v>0.243136770743944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H5">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>114.998883476107</v>
+        <v>145.4707516666666</v>
       </c>
       <c r="N5">
-        <v>114.998883476107</v>
+        <v>436.412255</v>
       </c>
       <c r="O5">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377238</v>
       </c>
       <c r="P5">
-        <v>0.1739113269337703</v>
+        <v>0.2075077128377237</v>
       </c>
       <c r="Q5">
-        <v>112.5733869587388</v>
+        <v>179.4792919133044</v>
       </c>
       <c r="R5">
-        <v>112.5733869587388</v>
+        <v>1615.31362721974</v>
       </c>
       <c r="S5">
-        <v>0.1739113269337703</v>
+        <v>0.1701768725672387</v>
       </c>
       <c r="T5">
-        <v>0.1739113269337703</v>
+        <v>0.1701768725672387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.233782666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.701348</v>
+      </c>
+      <c r="I6">
+        <v>0.8200990230195506</v>
+      </c>
+      <c r="J6">
+        <v>0.8200990230195507</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>97.73455433333334</v>
+      </c>
+      <c r="N6">
+        <v>293.203663</v>
+      </c>
+      <c r="O6">
+        <v>0.139414099415638</v>
+      </c>
+      <c r="P6">
+        <v>0.1394140994156379</v>
+      </c>
+      <c r="Q6">
+        <v>120.5831990708582</v>
+      </c>
+      <c r="R6">
+        <v>1085.248791637724</v>
+      </c>
+      <c r="S6">
+        <v>0.1143333667259152</v>
+      </c>
+      <c r="T6">
+        <v>0.1143333667259152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.266414</v>
+      </c>
+      <c r="I7">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J7">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.865525</v>
+      </c>
+      <c r="N7">
+        <v>68.596575</v>
+      </c>
+      <c r="O7">
+        <v>0.03261667889402277</v>
+      </c>
+      <c r="P7">
+        <v>0.03261667889402277</v>
+      </c>
+      <c r="Q7">
+        <v>2.030565325783333</v>
+      </c>
+      <c r="R7">
+        <v>18.27508793205</v>
+      </c>
+      <c r="S7">
+        <v>0.001925321038441586</v>
+      </c>
+      <c r="T7">
+        <v>0.001925321038441587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.266414</v>
+      </c>
+      <c r="I8">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J8">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>227.1285753333333</v>
+      </c>
+      <c r="N8">
+        <v>681.385726</v>
+      </c>
+      <c r="O8">
+        <v>0.3239890537962366</v>
+      </c>
+      <c r="P8">
+        <v>0.3239890537962366</v>
+      </c>
+      <c r="Q8">
+        <v>20.17007742295155</v>
+      </c>
+      <c r="R8">
+        <v>181.530696806564</v>
+      </c>
+      <c r="S8">
+        <v>0.01912466145083182</v>
+      </c>
+      <c r="T8">
+        <v>0.01912466145083182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.266414</v>
+      </c>
+      <c r="I9">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J9">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>207.8383993333333</v>
+      </c>
+      <c r="N9">
+        <v>623.5151979999999</v>
+      </c>
+      <c r="O9">
+        <v>0.2964724550563789</v>
+      </c>
+      <c r="P9">
+        <v>0.2964724550563789</v>
+      </c>
+      <c r="Q9">
+        <v>18.45701977333022</v>
+      </c>
+      <c r="R9">
+        <v>166.113177959972</v>
+      </c>
+      <c r="S9">
+        <v>0.01750039165217026</v>
+      </c>
+      <c r="T9">
+        <v>0.01750039165217026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.266414</v>
+      </c>
+      <c r="I10">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J10">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>145.4707516666666</v>
+      </c>
+      <c r="N10">
+        <v>436.412255</v>
+      </c>
+      <c r="O10">
+        <v>0.2075077128377238</v>
+      </c>
+      <c r="P10">
+        <v>0.2075077128377237</v>
+      </c>
+      <c r="Q10">
+        <v>12.91848161150777</v>
+      </c>
+      <c r="R10">
+        <v>116.26633450357</v>
+      </c>
+      <c r="S10">
+        <v>0.01224891615922856</v>
+      </c>
+      <c r="T10">
+        <v>0.01224891615922856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.266414</v>
+      </c>
+      <c r="I11">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J11">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>97.73455433333334</v>
+      </c>
+      <c r="N11">
+        <v>293.203663</v>
+      </c>
+      <c r="O11">
+        <v>0.139414099415638</v>
+      </c>
+      <c r="P11">
+        <v>0.1394140994156379</v>
+      </c>
+      <c r="Q11">
+        <v>8.679284519386888</v>
+      </c>
+      <c r="R11">
+        <v>78.113560674482</v>
+      </c>
+      <c r="S11">
+        <v>0.008229436832991106</v>
+      </c>
+      <c r="T11">
+        <v>0.008229436832991106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.978908521160798</v>
-      </c>
-      <c r="H6">
-        <v>0.978908521160798</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>90.83797678518791</v>
-      </c>
-      <c r="N6">
-        <v>90.83797678518791</v>
-      </c>
-      <c r="O6">
-        <v>0.1373730996438179</v>
-      </c>
-      <c r="P6">
-        <v>0.1373730996438179</v>
-      </c>
-      <c r="Q6">
-        <v>88.92206952002719</v>
-      </c>
-      <c r="R6">
-        <v>88.92206952002719</v>
-      </c>
-      <c r="S6">
-        <v>0.1373730996438179</v>
-      </c>
-      <c r="T6">
-        <v>0.1373730996438179</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.252496</v>
+      </c>
+      <c r="I12">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J12">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>22.865525</v>
+      </c>
+      <c r="N12">
+        <v>68.596575</v>
+      </c>
+      <c r="O12">
+        <v>0.03261667889402277</v>
+      </c>
+      <c r="P12">
+        <v>0.03261667889402277</v>
+      </c>
+      <c r="Q12">
+        <v>1.924484533466667</v>
+      </c>
+      <c r="R12">
+        <v>17.3203608012</v>
+      </c>
+      <c r="S12">
+        <v>0.00182473841810996</v>
+      </c>
+      <c r="T12">
+        <v>0.00182473841810996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.252496</v>
+      </c>
+      <c r="I13">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J13">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>227.1285753333333</v>
+      </c>
+      <c r="N13">
+        <v>681.385726</v>
+      </c>
+      <c r="O13">
+        <v>0.3239890537962366</v>
+      </c>
+      <c r="P13">
+        <v>0.3239890537962366</v>
+      </c>
+      <c r="Q13">
+        <v>19.11635225245511</v>
+      </c>
+      <c r="R13">
+        <v>172.047170272096</v>
+      </c>
+      <c r="S13">
+        <v>0.01812555090081314</v>
+      </c>
+      <c r="T13">
+        <v>0.01812555090081314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.252496</v>
+      </c>
+      <c r="I14">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J14">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>207.8383993333333</v>
+      </c>
+      <c r="N14">
+        <v>623.5151979999999</v>
+      </c>
+      <c r="O14">
+        <v>0.2964724550563789</v>
+      </c>
+      <c r="P14">
+        <v>0.2964724550563789</v>
+      </c>
+      <c r="Q14">
+        <v>17.49278815935644</v>
+      </c>
+      <c r="R14">
+        <v>157.435093434208</v>
+      </c>
+      <c r="S14">
+        <v>0.01658613620382706</v>
+      </c>
+      <c r="T14">
+        <v>0.01658613620382706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.252496</v>
+      </c>
+      <c r="I15">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J15">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>145.4707516666666</v>
+      </c>
+      <c r="N15">
+        <v>436.412255</v>
+      </c>
+      <c r="O15">
+        <v>0.2075077128377238</v>
+      </c>
+      <c r="P15">
+        <v>0.2075077128377237</v>
+      </c>
+      <c r="Q15">
+        <v>12.24359430427555</v>
+      </c>
+      <c r="R15">
+        <v>110.19234873848</v>
+      </c>
+      <c r="S15">
+        <v>0.01160900828988182</v>
+      </c>
+      <c r="T15">
+        <v>0.01160900828988182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.252496</v>
+      </c>
+      <c r="I16">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J16">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>97.73455433333334</v>
+      </c>
+      <c r="N16">
+        <v>293.203663</v>
+      </c>
+      <c r="O16">
+        <v>0.139414099415638</v>
+      </c>
+      <c r="P16">
+        <v>0.1394140994156379</v>
+      </c>
+      <c r="Q16">
+        <v>8.225861343649777</v>
+      </c>
+      <c r="R16">
+        <v>74.032752092848</v>
+      </c>
+      <c r="S16">
+        <v>0.007799514599769241</v>
+      </c>
+      <c r="T16">
+        <v>0.00779951459976924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H17">
+        <v>0.293036</v>
+      </c>
+      <c r="I17">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J17">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.865525</v>
+      </c>
+      <c r="N17">
+        <v>68.596575</v>
+      </c>
+      <c r="O17">
+        <v>0.03261667889402277</v>
+      </c>
+      <c r="P17">
+        <v>0.03261667889402277</v>
+      </c>
+      <c r="Q17">
+        <v>2.233473994633334</v>
+      </c>
+      <c r="R17">
+        <v>20.1012659517</v>
+      </c>
+      <c r="S17">
+        <v>0.00211771294234075</v>
+      </c>
+      <c r="T17">
+        <v>0.00211771294234075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H18">
+        <v>0.293036</v>
+      </c>
+      <c r="I18">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J18">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>227.1285753333333</v>
+      </c>
+      <c r="N18">
+        <v>681.385726</v>
+      </c>
+      <c r="O18">
+        <v>0.3239890537962366</v>
+      </c>
+      <c r="P18">
+        <v>0.3239890537962366</v>
+      </c>
+      <c r="Q18">
+        <v>22.18561640045955</v>
+      </c>
+      <c r="R18">
+        <v>199.670547604136</v>
+      </c>
+      <c r="S18">
+        <v>0.02103573495726934</v>
+      </c>
+      <c r="T18">
+        <v>0.02103573495726934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H19">
+        <v>0.293036</v>
+      </c>
+      <c r="I19">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J19">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>207.8383993333333</v>
+      </c>
+      <c r="N19">
+        <v>623.5151979999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2964724550563789</v>
+      </c>
+      <c r="P19">
+        <v>0.2964724550563789</v>
+      </c>
+      <c r="Q19">
+        <v>20.30137772901422</v>
+      </c>
+      <c r="R19">
+        <v>182.712399561128</v>
+      </c>
+      <c r="S19">
+        <v>0.01924915645643759</v>
+      </c>
+      <c r="T19">
+        <v>0.01924915645643759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H20">
+        <v>0.293036</v>
+      </c>
+      <c r="I20">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J20">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>145.4707516666666</v>
+      </c>
+      <c r="N20">
+        <v>436.412255</v>
+      </c>
+      <c r="O20">
+        <v>0.2075077128377238</v>
+      </c>
+      <c r="P20">
+        <v>0.2075077128377237</v>
+      </c>
+      <c r="Q20">
+        <v>14.20938906179778</v>
+      </c>
+      <c r="R20">
+        <v>127.88450155618</v>
+      </c>
+      <c r="S20">
+        <v>0.01347291582137464</v>
+      </c>
+      <c r="T20">
+        <v>0.01347291582137464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H21">
+        <v>0.293036</v>
+      </c>
+      <c r="I21">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J21">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>97.73455433333334</v>
+      </c>
+      <c r="N21">
+        <v>293.203663</v>
+      </c>
+      <c r="O21">
+        <v>0.139414099415638</v>
+      </c>
+      <c r="P21">
+        <v>0.1394140994156379</v>
+      </c>
+      <c r="Q21">
+        <v>9.54658095454089</v>
+      </c>
+      <c r="R21">
+        <v>85.919228590868</v>
+      </c>
+      <c r="S21">
+        <v>0.009051781256962405</v>
+      </c>
+      <c r="T21">
+        <v>0.009051781256962403</v>
       </c>
     </row>
   </sheetData>
